--- a/Documents/gràfiques_EC3.xlsx
+++ b/Documents/gràfiques_EC3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc_\Desktop\git\P3_EC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Tarea 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>Benchmark</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>64 bytes</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7150481189851253E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.755428258967629"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -201,9 +214,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tarea 1'!$B$1:$D$1</c:f>
+              <c:f>'Tarea 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>DL1</c:v>
                 </c:pt>
@@ -212,16 +225,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>UL2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tarea 1'!$B$2:$D$2</c:f>
+              <c:f>'Tarea 1'!$B$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.17799999999999999</c:v>
                 </c:pt>
@@ -230,6 +246,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.25059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14286666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -266,9 +285,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tarea 1'!$B$1:$D$1</c:f>
+              <c:f>'Tarea 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>DL1</c:v>
                 </c:pt>
@@ -277,16 +296,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>UL2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tarea 1'!$B$3:$D$3</c:f>
+              <c:f>'Tarea 1'!$B$3:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>6.7400000000000002E-2</c:v>
                 </c:pt>
@@ -295,6 +317,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.9699999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8699999999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -331,9 +356,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tarea 1'!$B$1:$D$1</c:f>
+              <c:f>'Tarea 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>DL1</c:v>
                 </c:pt>
@@ -342,16 +367,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>UL2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tarea 1'!$B$4:$D$4</c:f>
+              <c:f>'Tarea 1'!$B$4:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.1999999999999999E-3</c:v>
                 </c:pt>
@@ -360,6 +388,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,9 +427,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tarea 1'!$B$1:$D$1</c:f>
+              <c:f>'Tarea 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>DL1</c:v>
                 </c:pt>
@@ -407,16 +438,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>UL2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tarea 1'!$B$5:$D$5</c:f>
+              <c:f>'Tarea 1'!$B$5:$E$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>3.15E-2</c:v>
                 </c:pt>
@@ -425,6 +459,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.13950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8466666666666671E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,9 +498,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tarea 1'!$B$1:$D$1</c:f>
+              <c:f>'Tarea 1'!$B$1:$E$1</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>DL1</c:v>
                 </c:pt>
@@ -472,16 +509,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>UL2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Average</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tarea 1'!$B$6:$D$6</c:f>
+              <c:f>'Tarea 1'!$B$6:$E$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>2.41E-2</c:v>
                 </c:pt>
@@ -490,6 +530,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.2248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2966666666666675E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,6 +1270,98 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-5193-49DE-9270-9299041CE097}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 2'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 2'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.21716000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15886</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4080000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5119999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.476000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-323E-4E63-AC82-04D6C27FD815}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,6 +2150,98 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 3'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 3'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16KB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 3'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.7420000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7460000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2759999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6020000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7000000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86E7-4877-A0F3-24943546C44D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2342,7 +2569,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12616447944007"/>
+          <c:y val="0.25083333333333335"/>
+          <c:w val="0.66998797025371826"/>
+          <c:h val="0.64176727909011377"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2452,6 +2689,29 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 4'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Tarea 4'!$C$2:$C$6</c:f>
@@ -2509,6 +2769,29 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 4'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Tarea 4'!$D$2:$D$6</c:f>
@@ -2566,6 +2849,29 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 4'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Tarea 4'!$E$2:$E$6</c:f>
@@ -2623,6 +2929,29 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 4'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Tarea 4'!$F$2:$F$6</c:f>
@@ -2651,6 +2980,86 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-016C-4A30-A5EE-5EBD881E5CB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 4'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 4'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>32KB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64KB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128KB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256KB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>512KB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 4'!$G$2:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44313999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28667999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15226000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13325999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF82-4EB5-8014-3131F8E6CBCF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3324,6 +3733,69 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 5'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 5'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.11552</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5520000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3480000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2560000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0880000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50D1-4761-86D7-EA7BC4F474DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3961,6 +4433,69 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-D917-4C76-97A6-F0D79B364C97}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 6'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 6'!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.2759999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.6260000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4620000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5599999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5739999999999989E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F65-4971-BB1F-949C85297CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4659,6 +5194,80 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 7'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 7'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8 bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32 bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 7'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.21924000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C327-427B-A931-2AC0B9942133}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5351,6 +5960,80 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-7C5B-4C3A-B950-EE0A72B6A8BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 8'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 8'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8 bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32 bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 8'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12196000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7919999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2759999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6579999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7EAB-440B-947B-C8D5F5F56AF2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10676,10 +11359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10687,7 +11370,7 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10700,8 +11383,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -10714,8 +11400,12 @@
       <c r="D2">
         <v>0.25059999999999999</v>
       </c>
+      <c r="E2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>0.14286666666666667</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -10728,8 +11418,12 @@
       <c r="D3">
         <v>7.9699999999999993E-2</v>
       </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">AVERAGE(B3:D3)</f>
+        <v>6.8699999999999997E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10742,8 +11436,12 @@
       <c r="D4">
         <v>4.1000000000000003E-3</v>
       </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>7.3000000000000001E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10756,8 +11454,12 @@
       <c r="D5">
         <v>0.13950000000000001</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>7.8466666666666671E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -10769,6 +11471,10 @@
       </c>
       <c r="D6">
         <v>0.2248</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.2966666666666675E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10779,15 +11485,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10806,8 +11512,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -10826,8 +11535,12 @@
       <c r="F2">
         <v>0.109</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.21716000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -10846,8 +11559,12 @@
       <c r="F3">
         <v>7.1999999999999995E-2</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
+        <v>0.15886</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10866,8 +11583,12 @@
       <c r="F4">
         <v>5.0700000000000002E-2</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.11552</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10886,8 +11607,12 @@
       <c r="F5">
         <v>3.2899999999999999E-2</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>8.4080000000000002E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -10906,8 +11631,12 @@
       <c r="F6">
         <v>2.5999999999999999E-2</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.5119999999999997E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -10926,8 +11655,12 @@
       <c r="F7">
         <v>2.07E-2</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5.476000000000001E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -10945,6 +11678,10 @@
       </c>
       <c r="F8">
         <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -10955,15 +11692,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -10982,8 +11719,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -11002,8 +11742,12 @@
       <c r="F2">
         <v>1.9400000000000001E-2</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>7.7420000000000003E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -11022,8 +11766,12 @@
       <c r="F3">
         <v>1.11E-2</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
+        <v>6.7460000000000006E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -11042,8 +11790,12 @@
       <c r="F4">
         <v>7.3000000000000001E-3</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5.2759999999999994E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -11062,8 +11814,12 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.6020000000000003E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -11082,8 +11838,12 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.9099999999999999E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -11102,8 +11862,12 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>1.008E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -11121,6 +11885,10 @@
       </c>
       <c r="F8">
         <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>3.7000000000000006E-3</v>
       </c>
     </row>
   </sheetData>
@@ -11131,15 +11899,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -11158,8 +11926,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -11178,8 +11949,12 @@
       <c r="F2">
         <v>0.52470000000000006</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.44313999999999998</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -11198,8 +11973,12 @@
       <c r="F3">
         <v>0.40849999999999997</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">AVERAGE(B3:F3)</f>
+        <v>0.28667999999999993</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -11218,8 +11997,12 @@
       <c r="F4">
         <v>0.28539999999999999</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.20054</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -11238,8 +12021,12 @@
       <c r="F5">
         <v>0.1343</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.15226000000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -11257,6 +12044,10 @@
       </c>
       <c r="F6">
         <v>0.1183</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.13325999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -11267,15 +12058,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11294,8 +12085,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11314,8 +12108,12 @@
       <c r="F2">
         <v>5.0700000000000002E-2</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.11552</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11334,8 +12132,12 @@
       <c r="F3">
         <v>3.0499999999999999E-2</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
+        <v>9.2999999999999999E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11354,8 +12156,12 @@
       <c r="F4">
         <v>2.7699999999999999E-2</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>8.5520000000000013E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -11374,8 +12180,12 @@
       <c r="F5">
         <v>2.7300000000000001E-2</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>8.3480000000000013E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -11394,8 +12204,12 @@
       <c r="F6">
         <v>2.7199999999999998E-2</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>8.2580000000000001E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -11414,8 +12228,12 @@
       <c r="F7">
         <v>2.7099999999999999E-2</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8.2560000000000008E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -11433,6 +12251,10 @@
       </c>
       <c r="F8">
         <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>8.0880000000000007E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11443,15 +12265,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="G1" sqref="G1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11470,8 +12292,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11490,8 +12315,12 @@
       <c r="F2">
         <v>7.3000000000000001E-3</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>5.2759999999999994E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11510,8 +12339,12 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(B3:F3)</f>
+        <v>4.6260000000000003E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -11530,8 +12363,12 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4.5100000000000001E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -11550,8 +12387,12 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.4620000000000007E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
@@ -11570,8 +12411,12 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>4.4979999999999999E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32</v>
       </c>
@@ -11590,8 +12435,12 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>4.5599999999999995E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>64</v>
       </c>
@@ -11609,6 +12458,10 @@
       </c>
       <c r="F8">
         <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.5739999999999989E-2</v>
       </c>
     </row>
   </sheetData>
@@ -11619,15 +12472,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -11646,8 +12499,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -11666,8 +12522,12 @@
       <c r="F2">
         <v>6.5600000000000006E-2</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.21924000000000002</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -11686,8 +12546,12 @@
       <c r="F3">
         <v>5.11E-2</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="0">AVERAGE(B3:F3)</f>
+        <v>0.1457</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -11706,8 +12570,12 @@
       <c r="F4">
         <v>5.0700000000000002E-2</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.11552</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -11725,6 +12593,10 @@
       </c>
       <c r="F5">
         <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.11308</v>
       </c>
     </row>
   </sheetData>
@@ -11735,15 +12607,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11762,8 +12634,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -11782,8 +12657,12 @@
       <c r="F2">
         <v>1.1599999999999999E-2</v>
       </c>
+      <c r="G2">
+        <f>AVERAGE(B2:F2)</f>
+        <v>0.12196000000000003</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -11802,8 +12681,12 @@
       <c r="F3">
         <v>8.2000000000000007E-3</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" si="0">AVERAGE(B3:F3)</f>
+        <v>7.7919999999999989E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -11822,8 +12705,12 @@
       <c r="F4">
         <v>7.3000000000000001E-3</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5.2759999999999994E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -11841,6 +12728,10 @@
       </c>
       <c r="F5">
         <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.6579999999999994E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/gràfiques_EC3.xlsx
+++ b/Documents/gràfiques_EC3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Tarea 1" sheetId="1" r:id="rId1"/>
@@ -1302,7 +1302,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.696705107868776E-2"/>
+          <c:y val="7.8703703703703706E-2"/>
+          <c:w val="0.92641467910885"/>
+          <c:h val="0.73577136191309422"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -20040,7 +20050,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20142,7 +20152,7 @@
         <v>6.0440000000000008E-2</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
+        <f t="shared" ref="C7:D7" si="0">AVERAGE(C2:C6)</f>
         <v>2.8000000000000004E-2</v>
       </c>
       <c r="D7">
@@ -20246,7 +20256,7 @@
         <v>2.2947799999999998</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D29" si="0">B21*C21</f>
+        <f t="shared" ref="D21:D23" si="0">B21*C21</f>
         <v>3.0258280645999998</v>
       </c>
     </row>
@@ -20324,7 +20334,7 @@
         <v>0.35262199999999999</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D45" si="1">B37/1000</f>
+        <f t="shared" ref="D37:D39" si="1">B37/1000</f>
         <v>0.45970699999999998</v>
       </c>
       <c r="E37">
@@ -20380,7 +20390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -21983,8 +21993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/gràfiques_EC3.xlsx
+++ b/Documents/gràfiques_EC3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Tarea 1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Tarea 9" sheetId="10" r:id="rId9"/>
     <sheet name="Tarea 10" sheetId="11" r:id="rId10"/>
     <sheet name="Tarea 11" sheetId="12" r:id="rId11"/>
+    <sheet name="Tarea 12" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="45">
   <si>
     <t>Benchmark</t>
   </si>
@@ -157,6 +158,18 @@
   </si>
   <si>
     <t>Consumo Dinàmico(W)</t>
+  </si>
+  <si>
+    <t>64 Bytes</t>
+  </si>
+  <si>
+    <t>128 Bytes</t>
+  </si>
+  <si>
+    <t>256 Bytes</t>
+  </si>
+  <si>
+    <t>512 Bytes</t>
   </si>
 </sst>
 </file>
@@ -3743,6 +3756,630 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 12'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'accès (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 12'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 12'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.63356599999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63356599999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63356599999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63356599999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5489-47AA-9F45-CA6C8D02EAD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="450407487"/>
+        <c:axId val="495600191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="450407487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495600191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495600191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450407487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Àrea (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ca-ES" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ca-ES" sz="1800" b="0" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ca-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 12'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Àrea (mm^2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 12'!$A$20:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 12'!$D$20:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.73174506845999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66336409870000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62965380997800002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62980480283200002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C32-4EA1-9BFC-0ABC6FD9908E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="450407487"/>
+        <c:axId val="495600191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="450407487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495600191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495600191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450407487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4554,6 +5191,355 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 12'!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumo Estático (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 12'!$A$36:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 12'!$D$36:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19928100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19303899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19024199999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18865700000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F19-474B-AB50-AD97576D1367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 12'!$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumo Dinàmico (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 12'!$A$36:$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>64 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256 Bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512 Bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 12'!$E$36:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13861318315692445</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13636069486051966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13433675418188473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13365458373713238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F19-474B-AB50-AD97576D1367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="450407487"/>
+        <c:axId val="495600191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="450407487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495600191"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495600191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450407487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9976,7 +10962,127 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14927,7 +16033,1555 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -19312,6 +21966,125 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87927E43-74C1-41A5-A636-1E1C9E003C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1F57F5-AF08-4C9F-A29C-F64057EB8A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BA3905-F893-46A4-AF85-012E457FA820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38D848E-DE9C-45B9-9F6B-046738E18A2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20390,8 +23163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20724,6 +23497,224 @@
       <c r="E42">
         <f t="shared" si="2"/>
         <v>0.79264794290071783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>0.63356599999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>0.63356599999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>0.63356599999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>0.63356599999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>0.648038</v>
+      </c>
+      <c r="C20">
+        <v>1.12917</v>
+      </c>
+      <c r="D20">
+        <f>B20*C20</f>
+        <v>0.73174506845999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>0.648038</v>
+      </c>
+      <c r="C21">
+        <v>1.0236499999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D26" si="0">B21*C21</f>
+        <v>0.66336409870000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>0.648038</v>
+      </c>
+      <c r="C22">
+        <v>0.97163100000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.62965380997800002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>0.648038</v>
+      </c>
+      <c r="C23">
+        <v>0.97186399999999995</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.62980480283200002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>199.28100000000001</v>
+      </c>
+      <c r="C36">
+        <v>8.7820599999999999E-2</v>
+      </c>
+      <c r="D36">
+        <f>B36/1000</f>
+        <v>0.19928100000000001</v>
+      </c>
+      <c r="E36">
+        <f>(C36/1000)/(B2/1000)</f>
+        <v>0.13861318315692445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>193.03899999999999</v>
+      </c>
+      <c r="C37">
+        <v>8.6393499999999998E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D42" si="1">B37/1000</f>
+        <v>0.19303899999999999</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E42" si="2">(C37/1000)/(B3/1000)</f>
+        <v>0.13636069486051966</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>190.24199999999999</v>
+      </c>
+      <c r="C38">
+        <v>8.5111199999999998E-2</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>0.19024199999999999</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0.13433675418188473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>188.65700000000001</v>
+      </c>
+      <c r="C39">
+        <v>8.4679000000000004E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>0.18865700000000002</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.13365458373713238</v>
       </c>
     </row>
   </sheetData>
@@ -21993,7 +24984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>

--- a/Documents/gràfiques_EC3.xlsx
+++ b/Documents/gràfiques_EC3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Tarea 1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Tarea 10" sheetId="11" r:id="rId10"/>
     <sheet name="Tarea 11" sheetId="12" r:id="rId11"/>
     <sheet name="Tarea 12" sheetId="13" r:id="rId12"/>
+    <sheet name="Tarea 13" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
   <si>
     <t>Benchmark</t>
   </si>
@@ -139,25 +140,13 @@
     <t>Consumo Estático (mW)</t>
   </si>
   <si>
-    <t>Consumo Estático (W)</t>
-  </si>
-  <si>
     <t>Consumo Dinàmico (nJ)</t>
-  </si>
-  <si>
-    <t>Consumo Dinàmico (W)</t>
   </si>
   <si>
     <t>Consumo Estático(mW)</t>
   </si>
   <si>
     <t>Consumo Dinàmico(nJ)</t>
-  </si>
-  <si>
-    <t>Consumo Estático(W)</t>
-  </si>
-  <si>
-    <t>Consumo Dinàmico(W)</t>
   </si>
   <si>
     <t>64 Bytes</t>
@@ -171,18 +160,36 @@
   <si>
     <t>512 Bytes</t>
   </si>
+  <si>
+    <t>Consum Estàtic (W)</t>
+  </si>
+  <si>
+    <t>Consum Dinàmic (W)</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
+  <si>
+    <t>DL2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,8 +212,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,19 +1323,64 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ca-ES"/>
+              <a:t>Consums</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.696705107868776E-2"/>
-          <c:y val="7.8703703703703706E-2"/>
-          <c:w val="0.92641467910885"/>
-          <c:h val="0.73577136191309422"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1338,7 +1393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Estático(W)</c:v>
+                  <c:v>Consum Estàtic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1448,7 +1503,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Dinàmico(W)</c:v>
+                  <c:v>Consum Dinàmic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1505,10 +1560,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tarea 9'!$E$36:$E$44</c:f>
+              <c:f>'Tarea 9'!$E$36:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>5.9893243341905232E-2</c:v>
                 </c:pt>
@@ -1535,6 +1590,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.43393865405157944</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50311150853771058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1616,6 +1674,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2370,7 +2442,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ca-ES"/>
+              <a:t>Consums</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -2385,7 +2512,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Estático (W)</c:v>
+                  <c:v>Consum Estàtic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2460,7 +2587,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Dinàmico (W)</c:v>
+                  <c:v>Consum Dinàmic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2596,6 +2723,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3383,7 +3524,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ca-ES"/>
+              <a:t>Consums</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -3398,7 +3594,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Estático (W)</c:v>
+                  <c:v>Consum Estàtic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3491,7 +3687,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Dinàmico (W)</c:v>
+                  <c:v>Consum Dinàmic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3645,6 +3841,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5271,7 +5481,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ca-ES"/>
+              <a:t>Consums</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -5286,7 +5551,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Estático (W)</c:v>
+                  <c:v>Consum Estàtic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5360,7 +5625,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Consumo Dinàmico (W)</c:v>
+                  <c:v>Consum Dinàmic (W)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5495,6 +5760,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5527,6 +5806,1698 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="450407487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7150481189851253E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.755428258967629"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Applu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$2:$E$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50409999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8510-44C8-8361-430B2D8AA261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crafty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$3:$E$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28210000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8510-44C8-8361-430B2D8AA261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Twolf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$4:$E$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99829999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8510-44C8-8361-430B2D8AA261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vortex</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$5:$E$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8510-44C8-8361-430B2D8AA261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gzip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$6:$E$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.6199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8510-44C8-8361-430B2D8AA261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$1:$D$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$7:$E$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.882E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4000000000000008E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41302000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8510-44C8-8361-430B2D8AA261}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1990596255"/>
+        <c:axId val="1895469823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1990596255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895469823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1895469823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990596255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Temps d'accès (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$A$18:$A$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$A$18:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Tarea 13'!$B$18:$B$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Tarea 13'!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.47096900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94631200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82253500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B2FC-4899-9689-12D0135E8858}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1990596255"/>
+        <c:axId val="1895469823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1990596255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895469823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1895469823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990596255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Àrea (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ca-ES" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>mm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ca-ES" sz="1800" b="0" i="0" baseline="30000">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ca-ES">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Àrea (mm^2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tarea 13'!$A$27:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>IL1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DL1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DL2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 13'!$D$27:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.17301857045999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17687635302000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.50105758964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FC1F-4385-A435-B8FA8A089C89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1990596255"/>
+        <c:axId val="1895469823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1990596255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895469823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1895469823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990596255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ca-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ca-ES"/>
+              <a:t>Consums</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consum Estàtic (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 13'!$D$38:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.3885800000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.24151E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3833399999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F91-4ED3-9EE1-A4ADE0537A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tarea 13'!$E$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consum Dinàmic (W)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tarea 13'!$E$38:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.7140109009297853E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6436946799786965E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28975545113581791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3F91-4ED3-9EE1-A4ADE0537A73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1990596255"/>
+        <c:axId val="1895469823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1990596255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1895469823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1895469823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1990596255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11122,6 +13093,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18097,6 +20228,2018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -21754,16 +25897,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21792,16 +25935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21830,16 +25973,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21873,16 +26016,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21912,15 +26055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21950,15 +26093,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21992,16 +26135,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22032,12 +26175,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -22068,16 +26211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22099,6 +26242,163 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE6145A8-1E6B-489D-99EA-03AC20D39E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2D1BCC-F6A3-4F3C-96D3-64388AB3F5DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BF274A-62BC-47D0-96CE-7C6D490714BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AF7B30F-3062-47E0-9C54-5C9D9D6006EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -22158,10 +26458,10 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22196,15 +26496,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>752474</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22238,16 +26538,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22287,10 +26587,10 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22330,10 +26630,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22373,10 +26673,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22413,13 +26713,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22446,16 +26746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22485,15 +26785,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22943,8 +27243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23068,13 +27368,13 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -23161,10 +27461,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:E42"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23236,7 +27536,7 @@
         <v>2.4784899999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -23247,7 +27547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -23262,7 +27562,7 @@
         <v>0.73174506845999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -23277,7 +27577,7 @@
         <v>0.66768222499999996</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -23292,7 +27592,7 @@
         <v>0.67160809092000007</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -23307,7 +27607,7 @@
         <v>0.8142559868</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>16</v>
       </c>
@@ -23322,7 +27622,7 @@
         <v>1.2482203286</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>32</v>
       </c>
@@ -23336,8 +27636,11 @@
         <f t="shared" si="0"/>
         <v>2.1662828120000004</v>
       </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>64</v>
       </c>
@@ -23357,13 +27660,13 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -23509,8 +27812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23526,7 +27829,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>0.63356599999999996</v>
@@ -23534,7 +27837,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>0.63356599999999996</v>
@@ -23542,7 +27845,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>0.63356599999999996</v>
@@ -23550,7 +27853,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>0.63356599999999996</v>
@@ -23569,7 +27872,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>0.648038</v>
@@ -23584,7 +27887,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>0.648038</v>
@@ -23593,13 +27896,13 @@
         <v>1.0236499999999999</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D26" si="0">B21*C21</f>
+        <f t="shared" ref="D21:D23" si="0">B21*C21</f>
         <v>0.66336409870000002</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>0.648038</v>
@@ -23614,7 +27917,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>0.648038</v>
@@ -23632,18 +27935,18 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>199.28100000000001</v>
@@ -23662,7 +27965,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>193.03899999999999</v>
@@ -23671,17 +27974,17 @@
         <v>8.6393499999999998E-2</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D42" si="1">B37/1000</f>
+        <f t="shared" ref="D37:D39" si="1">B37/1000</f>
         <v>0.19303899999999999</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:E42" si="2">(C37/1000)/(B3/1000)</f>
+        <f t="shared" ref="E37:E39" si="2">(C37/1000)/(B3/1000)</f>
         <v>0.13636069486051966</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>190.24199999999999</v>
@@ -23700,7 +28003,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>188.65700000000001</v>
@@ -23723,11 +28026,289 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.50409999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.28210000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99829999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.1661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <f>AVERAGE(B2:B6)</f>
+        <v>3.882E-2</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(C2:C6)</f>
+        <v>9.4000000000000008E-4</v>
+      </c>
+      <c r="D7">
+        <f>AVERAGE(D2:D6)</f>
+        <v>0.41302000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.47096900000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.94631200000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>0.82253500000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0.20482600000000001</v>
+      </c>
+      <c r="C27">
+        <v>0.84470999999999996</v>
+      </c>
+      <c r="D27">
+        <f>B27*C27</f>
+        <v>0.17301857045999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.10968600000000001</v>
+      </c>
+      <c r="C28">
+        <v>1.6125700000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D30" si="0">B28*C28</f>
+        <v>0.17687635302000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>0.78115800000000002</v>
+      </c>
+      <c r="C29">
+        <v>1.9215800000000001</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>1.50105758964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>43.885800000000003</v>
+      </c>
+      <c r="C38">
+        <v>3.6330599999999998E-2</v>
+      </c>
+      <c r="D38">
+        <f>B38/1000</f>
+        <v>4.3885800000000003E-2</v>
+      </c>
+      <c r="E38">
+        <f>(C38/1000)/(B18/1000)</f>
+        <v>7.7140109009297853E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>22.415099999999999</v>
+      </c>
+      <c r="C39">
+        <v>2.5017600000000001E-2</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D41" si="1">B39/1000</f>
+        <v>2.24151E-2</v>
+      </c>
+      <c r="E39">
+        <f>(C39/1000)/(B19/1000)</f>
+        <v>2.6436946799786965E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>410.63299999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.23833399999999999</v>
+      </c>
+      <c r="D40">
+        <f>C40/1000</f>
+        <v>2.3833399999999999E-4</v>
+      </c>
+      <c r="E40">
+        <f>(C40/1000)/(B20/1000)</f>
+        <v>0.28975545113581791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -24715,7 +29296,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24984,8 +29565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25245,16 +29826,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
